--- a/biology/Botanique/Amphiblemma_lanceatum/Amphiblemma_lanceatum.xlsx
+++ b/biology/Botanique/Amphiblemma_lanceatum/Amphiblemma_lanceatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiblemma lanceatum Jacq.-Fél. est une espèce de plantes de la famille des Melastomataceae et du genre Amphiblemma, endémique du Cameroun
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma lanceatum est une plante herbacée dressée[2], robuste, pouvant atteindre 100 à 150 cm de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma lanceatum est une plante herbacée dressée, robuste, pouvant atteindre 100 à 150 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma lanceatum pousse dans les endroits marécageux et riverains des forêts du Cameroun[2].
-Sa présence a été constatée dans la Région du Centre, à Mbalmayo, et dans la Région de l'Est, à Deng-Deng, aux environs de Bertoua et près d'Abong-Mbang[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma lanceatum pousse dans les endroits marécageux et riverains des forêts du Cameroun.
+Sa présence a été constatée dans la Région du Centre, à Mbalmayo, et dans la Région de l'Est, à Deng-Deng, aux environs de Bertoua et près d'Abong-Mbang.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, relativement rare, menacée par la déforestation, Amphiblemma lanceatum figure sur la liste rouge de l'UICN comme une espèce vulnérable[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, relativement rare, menacée par la déforestation, Amphiblemma lanceatum figure sur la liste rouge de l'UICN comme une espèce vulnérable.
 </t>
         </is>
       </c>
